--- a/outputs/app-pdp-criteria-generator/test_analysis_associate_pdp.xlsx
+++ b/outputs/app-pdp-criteria-generator/test_analysis_associate_pdp.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>SkillCode</t>
   </si>
   <si>
+    <t>Skill Description</t>
+  </si>
+  <si>
     <t>SFIA Level</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>QUAS</t>
   </si>
   <si>
+    <t>Quality assurance</t>
+  </si>
+  <si>
     <t>Contributes to the collection of evidence and the conduct of formal audits or reviews of activities</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>METL</t>
   </si>
   <si>
+    <t>Methods and tools</t>
+  </si>
+  <si>
     <t>Provides support on the use of existing methods and tools</t>
   </si>
   <si>
@@ -106,6 +115,9 @@
     <t>BPTS</t>
   </si>
   <si>
+    <t>Acceptance testing</t>
+  </si>
+  <si>
     <t>Follows agreed standards and techniques to devise and execute test cases and scenarios based on pre-defined acceptance criteria</t>
   </si>
   <si>
@@ -115,6 +127,9 @@
     <t>TEST</t>
   </si>
   <si>
+    <t>Testing</t>
+  </si>
+  <si>
     <t>Designs test cases and test scripts under own direction, mapping back to pre-determined criteria, recording and reporting test outcomes</t>
   </si>
   <si>
@@ -130,6 +145,9 @@
     <t>USEV</t>
   </si>
   <si>
+    <t>User experience evaluation</t>
+  </si>
+  <si>
     <t>Evaluates design options and prototypes to obtain user feedback on requirements of developing systems, products, services or devices</t>
   </si>
   <si>
@@ -154,6 +172,9 @@
     <t>BURM</t>
   </si>
   <si>
+    <t>Risk management</t>
+  </si>
+  <si>
     <t>Undertakes basic risk management activities</t>
   </si>
   <si>
@@ -161,6 +182,9 @@
   </si>
   <si>
     <t>PENT</t>
+  </si>
+  <si>
+    <t>Penetration testing</t>
   </si>
   <si>
     <t>Follows standard approaches to design and execute penetration testing activities</t>
@@ -492,538 +516,655 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
       <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
       </c>
       <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
+      <c r="E8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
       </c>
       <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
       <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
+      <c r="E11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
       </c>
       <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
+      <c r="E12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
       </c>
       <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
+      <c r="E14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
       </c>
       <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
+      <c r="E15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
-        <v>23</v>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
       </c>
       <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
-        <v>24</v>
+      <c r="E17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
       </c>
       <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>26</v>
+      <c r="E18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
       </c>
       <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
-        <v>28</v>
+      <c r="E20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
       </c>
       <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>30</v>
+      <c r="E21" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
-        <v>31</v>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
       </c>
       <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
-        <v>33</v>
+      <c r="E23" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" t="s">
-        <v>34</v>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
       </c>
       <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
-        <v>35</v>
+      <c r="E25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
       </c>
       <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="D26" t="s">
-        <v>36</v>
+      <c r="E26" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
       </c>
       <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
         <v>5</v>
       </c>
-      <c r="D27" t="s">
-        <v>31</v>
+      <c r="E27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
       </c>
       <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
-        <v>38</v>
+      <c r="E28" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
-        <v>39</v>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
       </c>
       <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
-        <v>40</v>
+      <c r="E30" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
       </c>
       <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
         <v>4</v>
       </c>
-      <c r="D31" t="s">
-        <v>41</v>
+      <c r="E31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
       </c>
       <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
         <v>5</v>
       </c>
-      <c r="D32" t="s">
-        <v>42</v>
+      <c r="E32" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
       </c>
       <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
-        <v>43</v>
+      <c r="E33" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
       </c>
       <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
         <v>7</v>
       </c>
-      <c r="D34" t="s">
-        <v>44</v>
+      <c r="E34" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35"/>
     <row r="36">
       <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
       </c>
       <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
-        <v>46</v>
+      <c r="E36" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
-        <v>47</v>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
       </c>
       <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
-        <v>49</v>
+      <c r="E38" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" t="s">
-        <v>50</v>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
       </c>
       <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
         <v>3</v>
       </c>
-      <c r="D40" t="s">
-        <v>51</v>
+      <c r="E40" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
